--- a/数据挖掘实战-英文数据 词频词云 情感分析/facebook/评论统计_情感分类_数据.xlsx
+++ b/数据挖掘实战-英文数据 词频词云 情感分析/facebook/评论统计_情感分类_数据.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
